--- a/Cooler_Requirements_[Alexander]_[Harchenko].xlsx
+++ b/Cooler_Requirements_[Alexander]_[Harchenko].xlsx
@@ -16,33 +16,121 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Удовлетворяют всем критериями </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не удовлетворяют каждому из критериев </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>In the cooler, the water heating function should maintain a constant temperature in the range of 80-95 degrees</t>
-  </si>
-  <si>
-    <t>In the cooler, the water cooling function should maintain a constant temperature in the range of 7-15 degrees</t>
-  </si>
-  <si>
-    <t>Water can heat if there is cold water.</t>
-  </si>
-  <si>
-    <t>Water can cool down before it is heated.</t>
-  </si>
-  <si>
-    <t>The user should be able to turn off any function, cooling or heating. With the buttons, blue cooling and red heating.</t>
-  </si>
-  <si>
-    <t>The user can turn off the heating through the red buttons and the cooling through the blue button. The buttons should correspond to the colors and functions: red - cooling and blue - heating.</t>
+    <t>Water cooler must be equipped with the possibility of heating and cooling water</t>
+  </si>
+  <si>
+    <t>In the cooler, the heating power should be 500 W</t>
+  </si>
+  <si>
+    <t>Example of requirements for a cooler / Пример требований для кулера</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Right / Правильность</t>
+  </si>
+  <si>
+    <t>Completeness / Полнота</t>
+  </si>
+  <si>
+    <t>Comprehensibility / Понятность</t>
+  </si>
+  <si>
+    <t>Measurability / Измеримость</t>
+  </si>
+  <si>
+    <t>Water cooler should be with a tank of 19.5 liters</t>
+  </si>
+  <si>
+    <t>The tank is made of stainless steel using laser welding technology to prevent water leakage</t>
+  </si>
+  <si>
+    <t>Water cooler should run on batteries</t>
+  </si>
+  <si>
+    <t>The cooler comes with a separate boiler.</t>
+  </si>
+  <si>
+    <t>In the cooler there should be enough hot water for the entire staff.</t>
+  </si>
+  <si>
+    <t>In the cooler, the water is hot and cold</t>
+  </si>
+  <si>
+    <t>The cooler should be blue with a green door in the fridge</t>
+  </si>
+  <si>
+    <t>The cooler should have easy access to the replacement of the water bottle, the hole should be on top of the cooler</t>
+  </si>
+  <si>
+    <t>The cooler should regulate the temperature of cold water by itself and switch off the compressor.</t>
+  </si>
+  <si>
+    <t>Water cooler must be powered from a power outlet.</t>
+  </si>
+  <si>
+    <t>Water cooler should be powered from 220 volts</t>
+  </si>
+  <si>
+    <t>Water cooler must be on the floor</t>
+  </si>
+  <si>
+    <t>The cooler must be equipped with an activated carbon filter.</t>
+  </si>
+  <si>
+    <t>The cooler should be a cup holder on the right side</t>
+  </si>
+  <si>
+    <t>The cooler should work silently</t>
+  </si>
+  <si>
+    <t>The cooler must have 5 functions</t>
+  </si>
+  <si>
+    <t>The compartment for the refrigerator should be roomy.</t>
+  </si>
+  <si>
+    <t>The cooler compartment in the cooler must be very cold</t>
+  </si>
+  <si>
+    <t>Testability / Тестируемость</t>
+  </si>
+  <si>
+    <t>Consistency / Непротиворечивость</t>
+  </si>
+  <si>
+    <t>Cooling in the water cooler should be 2 l / h (5-10 ° C)</t>
+  </si>
+  <si>
+    <t>Cooler dimensions, not less than 310 * 310 * 950 mm, but not more than 310 * 340 * 968 mm</t>
+  </si>
+  <si>
+    <t>Water heating in the cooler should be 5 l / h (&gt; 90 ° С)</t>
+  </si>
+  <si>
+    <t>There should be enough water in the cooler for 5 bottles</t>
+  </si>
+  <si>
+    <t>Features: the refrigeration compartment should be large</t>
+  </si>
+  <si>
+    <t>The cooler must be rectangular</t>
+  </si>
+  <si>
+    <t>The bottle that is equipped with a cooler must be oval</t>
+  </si>
+  <si>
+    <t>A cooler without a bottle should weigh from 8 to 10 kg</t>
+  </si>
+  <si>
+    <t>Cooler can be orange or blue</t>
+  </si>
+  <si>
+    <t>The bottle in the cooler can be of different capacity</t>
   </si>
 </sst>
 </file>
@@ -60,7 +148,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,7 +157,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,15 +165,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,24 +205,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -406,67 +546,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="60">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+    <row r="12" spans="1:8">
+      <c r="D12" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
